--- a/experimento_rev02.xlsx
+++ b/experimento_rev02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raquel_lima\Downloads\Envios para Bernardo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinicius adm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977E5090-DDAE-4E18-9D56-4078C02FAFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F782D5ED-D5D2-48E0-838C-FD148C7875B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40035" yWindow="4110" windowWidth="19200" windowHeight="11175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codificação" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Cartão</t>
   </si>
@@ -83,28 +83,31 @@
     <t>Capacidade B</t>
   </si>
   <si>
-    <t>5% menos atrasos</t>
-  </si>
-  <si>
     <t>como é atualmente</t>
   </si>
   <si>
-    <t>5% mais atrasos</t>
-  </si>
-  <si>
-    <t>5% menos perdas</t>
-  </si>
-  <si>
-    <t>5% mais perdas</t>
-  </si>
-  <si>
-    <t>5% mais frequência/espaço</t>
-  </si>
-  <si>
-    <t>5% menos frequência/espaço</t>
-  </si>
-  <si>
     <t>Cenário com melhorias. Modo de baixa ou alta capacidade a depender da variável "Modo"</t>
+  </si>
+  <si>
+    <t>10% menos atrasos</t>
+  </si>
+  <si>
+    <t>10% mais atrasos</t>
+  </si>
+  <si>
+    <t>10% mais perdas</t>
+  </si>
+  <si>
+    <t>10% mais frequência/espaço</t>
+  </si>
+  <si>
+    <t>10% menos perdas</t>
+  </si>
+  <si>
+    <t>10% menos frequência/espaço</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -247,44 +250,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -605,33 +608,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -672,7 +675,7 @@
       <c r="H3" s="4">
         <v>-1</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -701,7 +704,7 @@
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -730,7 +733,7 @@
       <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -759,7 +762,7 @@
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -788,7 +791,7 @@
       <c r="H7" s="4">
         <v>-1</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -817,7 +820,7 @@
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -846,7 +849,7 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -875,7 +878,7 @@
       <c r="H10" s="4">
         <v>-1</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -904,7 +907,7 @@
       <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="4">
         <v>-1</v>
       </c>
     </row>
@@ -1257,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26605B61-6A06-432C-8239-44CD556C41F9}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1270,7 +1273,7 @@
     <col min="3" max="16384" width="17.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1281,19 +1284,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5">
-        <v>-0.3</v>
+        <v>-0.05</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -1301,153 +1304,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
       <c r="B4" s="5">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="C4" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5">
+        <v>-0.05</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
+      <c r="B7" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
         <v>-0.1</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5">
         <v>0.1</v>
       </c>
-      <c r="C7" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="5">
-        <v>-0.19</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
       <c r="C10" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>-0.15</v>
+        <v>-0.1</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
       <c r="B12" s="5">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="18"/>
       <c r="B13" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C13" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+      <c r="F15" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1456,7 +1462,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1467,40 +1473,40 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="9">
         <v>0</v>
       </c>
     </row>

--- a/experimento_rev02.xlsx
+++ b/experimento_rev02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\OneDrive - Concremat Engenharia e Tecnologia\Projetos\PLISP\PD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276E030C-3743-4241-A6F5-118BB5E9DD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1D3051-0B15-401B-8B8B-5B916CFA502D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codificação" sheetId="1" r:id="rId1"/>
@@ -607,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1276,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26605B61-6A06-432C-8239-44CD556C41F9}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>-1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>-1</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
